--- a/src/main/resources/menAmazonShirt.xlsx
+++ b/src/main/resources/menAmazonShirt.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="326">
   <si>
     <t>Id</t>
   </si>
@@ -35,502 +35,526 @@
     <t>men_amazon_shirt_1</t>
   </si>
   <si>
-    <t>https://m.media-amazon.com/images/I/81Qg2pAOm+L._AC_UL320_.jpg</t>
+    <t>https://m.media-amazon.com/images/I/617l80g6cCL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Askdeer</t>
+  </si>
+  <si>
+    <t>Men's Henley Shirts Long Sleeve Slim Fit Casual Shirt Soft Stretch Classic Henley T Shirt</t>
+  </si>
+  <si>
+    <t>$34.98</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToxMTk5MjgwODU0NzU1MDkzOjE3MTIxMDQxOTA6c3BfYXRmOjMwMDEyNzA1OTY2MTcwMjo6MDo6&amp;url=%2FAskdeer-Mens-Henley-Shirts-Stretch%2Fdp%2FB0CFKS21HD%2Fref%3Dsr_1_1_sspa%3Fcrid%3D39CUGV5TXOENK%26dib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712104190%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C68%26sr%3D1-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_2</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61OVolXkbWL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>COOFANDY</t>
+  </si>
+  <si>
+    <t>Men's Linen Shirts Short Sleeve Casual Shirts Button Down Shirt for Men Beach Summer Wedding Shirt</t>
+  </si>
+  <si>
+    <t>$41.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToxMTk5MjgwODU0NzU1MDkzOjE3MTIxMDQxOTA6c3BfYXRmOjMwMDExNzc0MzI5NjAwMjo6MDo6&amp;url=%2FCOOFANDY-Casual-Shirts-Button-X-Large%2Fdp%2FB0BLYW9914%2Fref%3Dsr_1_2_sspa%3Fcrid%3D39CUGV5TXOENK%26dib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712104190%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C68%26sr%3D1-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_3</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71KMF5CpxzL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>Mens Dress Shirts Casual Short Sleeve Button Down Shirts Regular-Fit Button Up Business Work Formal Shirt</t>
+  </si>
+  <si>
+    <t>$21.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToxMTk5MjgwODU0NzU1MDkzOjE3MTIxMDQxOTA6c3BfYXRmOjMwMDAxOTUxMjA3NTMwMjo6MDo6&amp;url=%2FS7-Button-Sleeve-Regular-Fit-Business%2Fdp%2FB098QR3BQ7%2Fref%3Dsr_1_3_sspa%3Fcrid%3D39CUGV5TXOENK%26dib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712104190%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C68%26sr%3D1-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_4</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71lmeLSdX5L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Mens Casual Linen Shirt Short Sleeve Button Down Shirt Summer Beach Hawaiian Shirts</t>
+  </si>
+  <si>
+    <t>$39.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToxMTk5MjgwODU0NzU1MDkzOjE3MTIxMDQxOTA6c3BfYXRmOjMwMDAxMTAzODYwOTkwMjo6MDo6&amp;url=%2FCOOFANDY-COOFANDY-Mens-Regular-Fit-Linen-Cotton-Short-Sleeve-Shirt-Casual-Plain-Button-Down-Beach-Shirts-Black%2Fdp%2FB0869KS6D7%2Fref%3Dsr_1_4_sspa%3Fcrid%3D39CUGV5TXOENK%26dib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712104190%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C68%26sr%3D1-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_5</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61Nn7FcOqBL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Gildan</t>
+  </si>
+  <si>
+    <t>Mens Platinum Crew T-Shirts</t>
+  </si>
+  <si>
+    <t>$26.75</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Gildan-T-Shirt-Multipack-Charcoal-X-Large/dp/B07XLTPC5L/ref=sr_1_5?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-5</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_6</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61P-fqPM9YL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Alimens &amp; Gentle</t>
+  </si>
+  <si>
+    <t>Men's Dress Shirts Long Sleeve Stretch Wrinkle-Free Formal Solid Button Down Shirt with Pocket</t>
+  </si>
+  <si>
+    <t>$34.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Alimens-Gentle-Shirts-Stretch-Wrinkle-Free/dp/B0BWN6N6G1/ref=sr_1_6?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-6</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_7</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71aiTjUrK9L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Men's Linen Shirt Short Sleeve Casual Lightweight Button Down Shirts Beach Summer Tops</t>
+  </si>
+  <si>
+    <t>$27.19</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Alimens-Gentle-Sleeve-Button-Wedding/dp/B0C6DR86F8/ref=sr_1_7?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-7</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_8</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61Eq6uGx22L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Under Armour</t>
+  </si>
+  <si>
+    <t>Mens Tech 2.0 Short-Sleeve T-Shirt</t>
+  </si>
+  <si>
+    <t>$26.00</t>
+  </si>
+  <si>
+    <t>https://aax-us-iad.amazon.com/x/c/RK8bYsxL5MKrRBWY3k7gkdoAAAGOoVyz3QEAAAH2AQBvbm9fdHhuX2JpZDMgICBvbm9fdHhuX2ltcDEgICDNE9w-/https://www.amazon.ca/Under-Armour-Short-Sleeve-Graphite/dp/B0785VXRX2/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.6b8efafa-0a4c-485d-8241-b89dd78497d9%3Aamzn1.sym.6b8efafa-0a4c-485d-8241-b89dd78497d9&amp;crid=39CUGV5TXOENK&amp;cv_ct_cx=Shirt&amp;dib=eyJ2IjoiMSJ9.JiYyZNwv0b4FByhMXpjAIg.o8P-2US3gQf1Fs4CRkK1EpaYpVDTXvKCmKNlwQ-mmaI&amp;dib_tag=se&amp;keywords=Shirt&amp;pd_rd_i=B0785VXRX2&amp;pd_rd_r=67d114cb-ae63-4336-b8b6-3a5f16225879&amp;pd_rd_w=Ar7Og&amp;pd_rd_wg=EEwga&amp;pf_rd_p=6b8efafa-0a4c-485d-8241-b89dd78497d9&amp;pf_rd_r=GE91SF62A5RGH2P27V83&amp;qid=1712104190&amp;s=fashion&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_9</t>
+  </si>
+  <si>
+    <t>ALEX VANDO</t>
+  </si>
+  <si>
+    <t>Mens Dress Shirts Regular Fit Long Sleeve Men Shirt</t>
+  </si>
+  <si>
+    <t>$40.28</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Alex-Vando-Shirts-Regular-Sleeve/dp/B072QYNDGR/ref=sr_1_8?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-8</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_10</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71id+wwTw-L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Fruit of the Loom</t>
+  </si>
+  <si>
+    <t>Mens Pocket T-Shirt Multipack</t>
+  </si>
+  <si>
+    <t>$26.39</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Fruit-Loom-T-Shirt-Multipack-Underwear/dp/B08F2NB5PH/ref=sr_1_9?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-9</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_11</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61SXEcJ6DdL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Mens Long Sleeve Dress Shirts Wrinkle Free Casual Button Down Shirts</t>
+  </si>
+  <si>
+    <t>$10.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/ALIMENS-GENTLE-Sleeve-Wrinkle-Regular/dp/B0BB97681H/ref=sr_1_10?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-10</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_12</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/616PM+JkLKL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Jerzees</t>
+  </si>
+  <si>
+    <t>Men's Long-Sleeve T-Shirt</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Jerzees-Adult-Sleeve-Black-Large/dp/B00T7TXS2W/ref=sr_1_11?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-11</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_13</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71c7eRazT8S._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>$21.74</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/COOFANDY-Shirts-Sleeve-Casual-Wedding/dp/B0BV27DL6Y/ref=sr_1_12?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-12</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_14</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81+oQBvBR-L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Carhartt</t>
+  </si>
+  <si>
+    <t>Mens Loose Fit Heavyweight Short-Sleeve Pocket T-Shirt (Big &amp; Tall)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Carhartt-Workwear-Pocket-Short-Sleeve-T-Shirt/dp/B0017SO7N0/ref=sr_1_13?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-13</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_15</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61pyx+Tp-FL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Men's Casual Long Sleeve Henley Shirts Cotton Linen Premium Beach T-Shirt</t>
+  </si>
+  <si>
+    <t>$79.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/COOFANDY-Premium-Henley-Shirts-Casual/dp/B07CH22ZN8/ref=sr_1_14?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-14</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_16</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/615Cby-DciL._AC_UL320_.jpg</t>
   </si>
   <si>
     <t>MLYENX</t>
   </si>
   <si>
-    <t>Long Sleeve Tee Shirts for Men Moisture Wicking Long Sleeve Shirts Sun Protection Workout Shirts for Running</t>
-  </si>
-  <si>
-    <t>$51.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3MzMzODQ2MzE2NjM4MDkyOjE3MTIwODgxOTg6c3BfYXRmOjMwMDEyMDAwMjgyNjgwMjo6MDo6&amp;url=%2FMLYENX-Moisture-Wicking-Athletic-Protection%2Fdp%2FB0B59KV3WS%2Fref%3Dsr_1_1_sspa%3Fdib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712088198%26s%3Dfashion%26sr%3D1-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_2</t>
+    <t>Men's Workout Shirts Athletic Wear Moisture Wicking, Quick Dry Men’s Active Shirts Gym T Shirts</t>
+  </si>
+  <si>
+    <t>$29.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/MLYENX-Workout-Athletic-Moisture-Wicking/dp/B096ZLKZR5/ref=sr_1_15?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-15</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_17</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81n8DshZ8YL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Beninos</t>
+  </si>
+  <si>
+    <t>Mens Long Sleeve Slim Fit Dress Shirts</t>
+  </si>
+  <si>
+    <t>$30.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Mens-Sleeve-Dress-Shirts-455White/dp/B0746CT87M/ref=sr_1_16?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-16</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_18</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51m3RtaglUL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Mens Short Sleeve Dress Shirts Wrinkle Free Solid Casual Button Down Shirts with Pocket</t>
+  </si>
+  <si>
+    <t>$69.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Alimens-Gentle-Sleeve-Shirts-Regular/dp/B0BWTXTYSM/ref=sr_1_17?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-17</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_19</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61F7+qi2PfL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Polo Shirts for Men Quick-Dry Athletic Golf Polo Casual Short Sleeve Moisture Wicking Shirts</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/MLYENX-Quick-Dry-Athletic-Moisture-Wicking/dp/B0B59BJG6Y/ref=sr_1_18?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-18</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_20</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81It7K5hB4L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Mens Loose Fit Heavyweight Short-Sleeve Pocket T-Shirt</t>
+  </si>
+  <si>
+    <t>$28.35</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Carhartt-Workwear-Pocket-T-Shirt-Original/dp/B0000ANHT7/ref=sr_1_19?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-19</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_21</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/615hVr93IJL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Amazon Essentials</t>
+  </si>
+  <si>
+    <t>Mens Long-Sleeve Flannel Shirt</t>
+  </si>
+  <si>
+    <t>$23.00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Amazon-Essentials-Regular-Fit-Long-Sleeve-Flannel/dp/B073XPHMZ8/ref=sr_1_20?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-20</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_22</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/9130TJCl1eL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Maylian</t>
+  </si>
+  <si>
+    <t>Mens Golf Shirt Quick-Dry Print Performance Polo Shirts for Men Quick-Dry</t>
+  </si>
+  <si>
+    <t>$30.98</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToxMTk5MjgwODU0NzU1MDkzOjE3MTIxMDQxOTA6c3BfbXRmOjMwMDE1ODg5ODQyOTkwMjo6MDo6&amp;url=%2FMaylian-Shirt-Quick-Dry-Shirts-XX-Large%2Fdp%2FB0CYSN2364%2Fref%3Dsr_1_21_sspa%3Fcrid%3D39CUGV5TXOENK%26dib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712104190%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C68%26sr%3D1-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_23</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71ySqfPm8vL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>MAGCOMSEN</t>
+  </si>
+  <si>
+    <t>Men's Long Sleeve Sun Shirts UPF 50+ Tees 1/4 Zip Up Fishing Running Rash Guard T-Shirts Outdoor Shirt</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToxMTk5MjgwODU0NzU1MDkzOjE3MTIxMDQxOTA6c3BfbXRmOjIwMDE3MTk0MDEwNTI5ODo6MDo6&amp;url=%2FMAGCOMSEN-Shirts-Protection-Fishing-Athletic%2Fdp%2FB097YKMY98%2Fref%3Dsr_1_22_sspa%3Fcrid%3D39CUGV5TXOENK%26dib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712104190%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C68%26sr%3D1-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_24</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71Q5s0+nUpL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>$33.95</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToxMTk5MjgwODU0NzU1MDkzOjE3MTIxMDQxOTA6c3BfbXRmOjMwMDAyMDMxNTg2NzQwMjo6MDo6&amp;url=%2FAlex-Vando-Shirts-Regular-Sleeve%2Fdp%2FB072R1M44T%2Fref%3Dsr_1_23_sspa%3Fcrid%3D39CUGV5TXOENK%26dib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712104190%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C68%26sr%3D1-23-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_25</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/71XSNyav+mL._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>ALEX VANDO</t>
-  </si>
-  <si>
-    <t>Mens Dress Shirts Regular Fit Long Sleeve Men Shirt</t>
-  </si>
-  <si>
-    <t>$37.98</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3MzMzODQ2MzE2NjM4MDkyOjE3MTIwODgxOTg6c3BfYXRmOjIwMDAxNDQ4MDM4NTMzMTo6MDo6&amp;url=%2FAlex-Vando-Shirts-Regular-Sleeve%2Fdp%2FB072KJW9P2%2Fref%3Dsr_1_2_sspa%3Fdib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712088198%26s%3Dfashion%26sr%3D1-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_3</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61mLXUFvnnL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>EISHOPEER</t>
-  </si>
-  <si>
-    <t>Mens Casual Cotton Linen Shirts Long Sleeve Button Down Shirts Dress Shirts Golf Shirts S-XXL</t>
-  </si>
-  <si>
-    <t>$34.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3MzMzODQ2MzE2NjM4MDkyOjE3MTIwODgxOTg6c3BfYXRmOjMwMDE1NzI4MTMxNTEwMjo6MDo6&amp;url=%2FEISHOPEER-Sleeve-Button-Shirts-Cotton%2Fdp%2FB0CFTHG8GQ%2Fref%3Dsr_1_3_sspa%3Fdib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712088198%26s%3Dfashion%26sr%3D1-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_4</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/613mzpDzHWL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>NAVISKIN</t>
-  </si>
-  <si>
-    <t>Men's Sun Protection UPF 50+ UV Outdoor Long Sleeve T-Shirt</t>
-  </si>
-  <si>
-    <t>$29.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3MzMzODQ2MzE2NjM4MDkyOjE3MTIwODgxOTg6c3BfYXRmOjIwMDE0MjM3NzU1MjM5ODo6MDo6&amp;url=%2FNAVISKIN-Protection-Outdoor-Sleeve-Shirts%2Fdp%2FB0BHN3B6V9%2Fref%3Dsr_1_4_sspa%3Fdib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712088198%26s%3Dfashion%26sr%3D1-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_5</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61Nn7FcOqBL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Gildan</t>
-  </si>
-  <si>
-    <t>Mens Platinum Crew T-Shirts</t>
-  </si>
-  <si>
-    <t>$26.75</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Gildan-T-Shirt-Multipack-Charcoal-X-Large/dp/B07XLTPC5L/ref=sr_1_5?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-5</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_6</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61P-fqPM9YL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Alimens &amp; Gentle</t>
-  </si>
-  <si>
-    <t>Men's Dress Shirts Long Sleeve Stretch Wrinkle-Free Formal Solid Button Down Shirt with Pocket</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Alimens-Gentle-Shirts-Stretch-Wrinkle-Free/dp/B0BWN6N6G1/ref=sr_1_6?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-6</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_7</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71aiTjUrK9L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Men's Linen Shirt Short Sleeve Casual Lightweight Button Down Shirts Beach Summer Tops</t>
-  </si>
-  <si>
-    <t>$27.19</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Alimens-Gentle-Sleeve-Button-Wedding/dp/B0C6DR86F8/ref=sr_1_7?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-7</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_8</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71id+wwTw-L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>$26.00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Alex-Vando-Shirts-Regular-Sleeve/dp/B072QYNDGR/ref=sr_1_8?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-8</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_9</t>
+    <t>VEBOON</t>
+  </si>
+  <si>
+    <t>Men's Pique Polo Shirts Long Sleeve Cotton Blend Tipped Casual Collared Polo Shirt Business Classic Fit</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToxMTk5MjgwODU0NzU1MDkzOjE3MTIxMDQxOTA6c3BfbXRmOjMwMDA1NDkwMDY0MTkwMjo6MDo6&amp;url=%2FVEBOON-Fashion-Shirts-Classic-Performance%2Fdp%2FB0C9MF5KXG%2Fref%3Dsr_1_24_sspa%3Fcrid%3D39CUGV5TXOENK%26dib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712104190%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C68%26sr%3D1-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_26</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71xykNaYDdL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Men's Linen Casual Short Sleeve Shirt Button Down Summer Beach Shirts</t>
+  </si>
+  <si>
+    <t>$37.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/COOFANDY-Casual-Business-Trendy-No-Tuck/dp/B0BVDV84WF/ref=sr_1_25?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-25</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_27</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71hUWaJ9NAL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Men's Casual Linen Shirt Short Sleeve Button Down Business Dress Shirt</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/COOFANDY-Textured-Designer-Western-Regular/dp/B0953W3FCC/ref=sr_1_26?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-26</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_28</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/71-olA2AXuL._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>COOFANDY</t>
-  </si>
-  <si>
-    <t>Men's Casual Linen Shirt Short Sleeve Button Down Business Dress Shirt</t>
-  </si>
-  <si>
-    <t>$37.99</t>
-  </si>
-  <si>
-    <t>https://aax-us-iad.amazon.com/x/c/RJsb8Q--pJO6gqZrceOsBPwAAAGOoGirpwEAAAH2AQBvbm9fdHhuX2JpZDYgICBvbm9fdHhuX2ltcDEgICAfYnIT/https://www.amazon.ca/COOFANDY-Textured-Designer-Western-Regular/dp/B0953W3FCC/ref=sxin_16_sbv_search_btf?content-id=amzn1.sym.6b8efafa-0a4c-485d-8241-b89dd78497d9%3Aamzn1.sym.6b8efafa-0a4c-485d-8241-b89dd78497d9&amp;cv_ct_cx=Shirt&amp;dib=eyJ2IjoiMSJ9.dhnPg1gZqnZJZtINkaOcIg.64jiSlQJf0k00Pw-hb_cBVYaAEWVqQ6TmIHOI28s9d0&amp;dib_tag=se&amp;keywords=Shirt&amp;pd_rd_i=B0953W3FCC&amp;pd_rd_r=831d176b-2eb4-4bd4-9b49-fe817fb1384c&amp;pd_rd_w=8Ktz6&amp;pd_rd_wg=nw2uE&amp;pf_rd_p=6b8efafa-0a4c-485d-8241-b89dd78497d9&amp;pf_rd_r=HJ0TY6TMZTRXJSJ8JGND&amp;qid=1712088198&amp;s=fashion&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_10</t>
-  </si>
-  <si>
-    <t>Mens Long Sleeve Dress Shirts Wrinkle Free Casual Button Down Shirts</t>
-  </si>
-  <si>
-    <t>$26.39</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/ALIMENS-GENTLE-Sleeve-Wrinkle-Regular/dp/B0BB97681H/ref=sr_1_9?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-9</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_11</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/616PM+JkLKL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Fruit of the Loom</t>
-  </si>
-  <si>
-    <t>Mens Pocket T-Shirt Multipack</t>
-  </si>
-  <si>
-    <t>$40.28</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Fruit-Loom-T-Shirt-Multipack-Underwear/dp/B08F2NB5PH/ref=sr_1_10?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-10</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_12</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61SXEcJ6DdL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Carhartt</t>
-  </si>
-  <si>
-    <t>Mens Loose Fit Heavyweight Short-Sleeve Pocket T-Shirt (Big &amp; Tall)</t>
-  </si>
-  <si>
-    <t>$21.74</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Carhartt-Workwear-Pocket-Short-Sleeve-T-Shirt/dp/B0017SO7N0/ref=sr_1_11?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-11</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_13</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61pyx+Tp-FL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Jerzees</t>
-  </si>
-  <si>
-    <t>Men's Long-Sleeve T-Shirt</t>
-  </si>
-  <si>
-    <t>$10.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Jerzees-Adult-Sleeve-Black-Large/dp/B00T7TXS2W/ref=sr_1_12?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-12</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_14</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71c7eRazT8S._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Men's Workout Shirts Athletic Wear Moisture Wicking, Quick Dry Men’s Active Shirts Gym T Shirts</t>
-  </si>
-  <si>
-    <t>$79.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/MLYENX-Workout-Athletic-Moisture-Wicking/dp/B096ZLKZR5/ref=sr_1_13?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-13</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_15</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81n8DshZ8YL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Beninos</t>
-  </si>
-  <si>
-    <t>Mens Long Sleeve Slim Fit Dress Shirts</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Mens-Sleeve-Dress-Shirts-455White/dp/B0746CT87M/ref=sr_1_14?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-14</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_16</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/51m3RtaglUL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Men's Casual Long Sleeve Henley Shirts Cotton Linen Premium Beach T-Shirt</t>
-  </si>
-  <si>
-    <t>$39.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/COOFANDY-Premium-Henley-Shirts-Casual/dp/B07CH22ZN8/ref=sr_1_15?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-15</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_17</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/615Cby-DciL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Men's Linen Shirts Short Sleeve Casual Shirts Button Down Shirt for Men Beach Summer Wedding Shirt</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/COOFANDY-Shirts-Sleeve-Casual-Wedding/dp/B0BV27DL6Y/ref=sr_1_16?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-16</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_18</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81+oQBvBR-L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Mens Short Sleeve Dress Shirts Wrinkle Free Solid Casual Button Down Shirts with Pocket</t>
-  </si>
-  <si>
-    <t>$30.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Alimens-Gentle-Sleeve-Shirts-Regular/dp/B0BWTXTYSM/ref=sr_1_17?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-17</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_19</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61F7+qi2PfL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Polo Shirts for Men Quick-Dry Athletic Golf Polo Casual Short Sleeve Moisture Wicking Shirts</t>
-  </si>
-  <si>
-    <t>$69.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/MLYENX-Quick-Dry-Athletic-Moisture-Wicking/dp/B0B59BJG6Y/ref=sr_1_18?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-18</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_20</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81It7K5hB4L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Amazon Essentials</t>
-  </si>
-  <si>
-    <t>Mens Long-Sleeve Flannel Shirt</t>
-  </si>
-  <si>
-    <t>$28.35</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Amazon-Essentials-Regular-Fit-Long-Sleeve-Flannel/dp/B073XPHMZ8/ref=sr_1_19?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-19</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_21</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/9130TJCl1eL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Mens Loose Fit Heavyweight Short-Sleeve Pocket T-Shirt</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Carhartt-Workwear-Pocket-T-Shirt-Original/dp/B0000ANHT7/ref=sr_1_20?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-20</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_22</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/615hVr93IJL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Maylian</t>
-  </si>
-  <si>
-    <t>Mens Golf Shirt Quick-Dry Print Performance Polo Shirts for Men Quick-Dry</t>
-  </si>
-  <si>
-    <t>$23.00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3MzMzODQ2MzE2NjM4MDkyOjE3MTIwODgxOTg6c3BfbXRmOjMwMDE1ODg5ODQyOTkwMjo6MDo6&amp;url=%2FMaylian-Shirt-Quick-Dry-Shirts-XX-Large%2Fdp%2FB0CYSN2364%2Fref%3Dsr_1_21_sspa%3Fdib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712088198%26s%3Dfashion%26sr%3D1-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_23</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71ySqfPm8vL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>MAGCOMSEN</t>
-  </si>
-  <si>
-    <t>Men's Long Sleeve Sun Shirts UPF 50+ Tees 1/4 Zip Up Fishing Running Rash Guard T-Shirts Outdoor Shirt</t>
-  </si>
-  <si>
-    <t>$30.98</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3MzMzODQ2MzE2NjM4MDkyOjE3MTIwODgxOTg6c3BfbXRmOjIwMDE3MTk0MDEwNTI5ODo6MDo6&amp;url=%2FMAGCOMSEN-Shirts-Protection-Fishing-Athletic%2Fdp%2FB097YKMY98%2Fref%3Dsr_1_22_sspa%3Fdib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712088198%26s%3Dfashion%26sr%3D1-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_24</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71Q5s0+nUpL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>PJ PAUL JONES</t>
-  </si>
-  <si>
-    <t>Men's Hawaiian Shirt Button Down Tropical Shirts Casual Beach Shirt</t>
+    <t>Men's Relaxed Fit Heavyweight Short-Sleeve Pocket T-Shirt</t>
+  </si>
+  <si>
+    <t>$24.00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Carhartt-Relaxed-T-Shirt-Black-Small/dp/B07DVTJ4DL/ref=sr_1_27?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-27</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_29</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71XXRwqp+XL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Tommy Hilfiger</t>
+  </si>
+  <si>
+    <t>Mens Flag Crew Neck Tee</t>
+  </si>
+  <si>
+    <t>$30.39</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Tommy-Hilfiger-Short-Sleeve-T-Shirt/dp/B01N9MO5Q3/ref=sr_1_28?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-28</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_30</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61JJFR2Dm4L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Mens Beach Linen Shirts Hawaiian Floral Shirts Casual Summer Cotton Tops</t>
+  </si>
+  <si>
+    <t>$27.00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/COOFANDY-Shirts-Button-Lightweight-Wedding/dp/B09P3KVTNZ/ref=sr_1_29?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-29</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_31</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81rN7jSUgHS._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Men's Slim-Fit Long-Sleeve Solid Flannel Shirt</t>
+  </si>
+  <si>
+    <t>$48.81</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Amazon-Essentials-Slim-Fit-Long-Sleeve-Flannel/dp/B07BN43G2G/ref=sr_1_30?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-30</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_32</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81TvDcGD4GL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Legendary Whitetails</t>
+  </si>
+  <si>
+    <t>Mens Buck Camp Flannel Shirt</t>
+  </si>
+  <si>
+    <t>$25.90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Legendary-Whitetails-Flannels-Cobalt-X-Large/dp/B012XWYCRY/ref=sr_1_31?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-31</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_33</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81yrGRzMdeL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Mens Regular-Fit Short-Sleeve Print Shirt</t>
   </si>
   <si>
     <t>$35.99</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3MzMzODQ2MzE2NjM4MDkyOjE3MTIwODgxOTg6c3BfbXRmOjMwMDE0OTUwODYyMTMwMjo6MDo6&amp;url=%2FPJ-PAUL-JONES-Casual-Button%2Fdp%2FB0CTCPPDBL%2Fref%3Dsr_1_23_sspa%3Fdib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712088198%26s%3Dfashion%26sr%3D1-23-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_25</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81t32nnwFzL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>VEBOON</t>
-  </si>
-  <si>
-    <t>Men's Pique Polo Shirts Long Sleeve Cotton Blend Tipped Casual Collared Polo Shirt Business Classic Fit</t>
-  </si>
-  <si>
-    <t>$33.95</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3MzMzODQ2MzE2NjM4MDkyOjE3MTIwODgxOTg6c3BfbXRmOjMwMDA1NDkwMDY0MTkwMjo6MDo6&amp;url=%2FVEBOON-Fashion-Shirts-Classic-Performance%2Fdp%2FB0C9MF5KXG%2Fref%3Dsr_1_24_sspa%3Fdib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712088198%26s%3Dfashion%26sr%3D1-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_26</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71xykNaYDdL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Men's Linen Casual Short Sleeve Shirt Button Down Summer Beach Shirts</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/COOFANDY-Casual-Business-Trendy-No-Tuck/dp/B0BVDV84WF/ref=sr_1_25?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-25</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_27</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71hUWaJ9NAL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/COOFANDY-Textured-Designer-Western-Regular/dp/B0953W3FCC/ref=sr_1_26?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-26</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_28</t>
-  </si>
-  <si>
-    <t>Men's Relaxed Fit Heavyweight Short-Sleeve Pocket T-Shirt</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Carhartt-Relaxed-T-Shirt-Black-Small/dp/B07DVTJ4DL/ref=sr_1_27?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-27</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_29</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71XXRwqp+XL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Tommy Hilfiger</t>
-  </si>
-  <si>
-    <t>Mens Flag Crew Neck Tee</t>
-  </si>
-  <si>
-    <t>$24.00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Tommy-Hilfiger-Short-Sleeve-T-Shirt/dp/B01N9MO5Q3/ref=sr_1_28?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-28</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_30</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61JJFR2Dm4L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Men's Slim-Fit Long-Sleeve Solid Flannel Shirt</t>
-  </si>
-  <si>
-    <t>$26.80</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Amazon-Essentials-Slim-Fit-Long-Sleeve-Flannel/dp/B07BN43G2G/ref=sr_1_29?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-29</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_31</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81TvDcGD4GL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Mens Beach Linen Shirts Hawaiian Floral Shirts Casual Summer Cotton Tops</t>
-  </si>
-  <si>
-    <t>$30.39</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/COOFANDY-Shirts-Button-Lightweight-Wedding/dp/B09P3KVTNZ/ref=sr_1_30?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-30</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_32</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81rN7jSUgHS._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Mens Regular-Fit Short-Sleeve Print Shirt</t>
-  </si>
-  <si>
-    <t>$25.90</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Amazon-Essentials-Regular-Fit-Short-Sleeve-X-Large/dp/B07JHQ8TJX/ref=sr_1_31?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-31</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_33</t>
+    <t>https://www.amazon.ca/Amazon-Essentials-Regular-Fit-Short-Sleeve-X-Large/dp/B07JHQ8TJX/ref=sr_1_32?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-32</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_34</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/81emGGjgtCL._AC_UL320_.jpg</t>
@@ -539,43 +563,28 @@
     <t>Mens Printed Dress Shirts Long Sleeve Regular Fit Fashion Shirt</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/ALEX-VANDO-Printed-Shirts-Sleeve/dp/B09W26RM6G/ref=sr_1_32?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-32</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_34</t>
+    <t>$34.07</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/ALEX-VANDO-Printed-Shirts-Sleeve/dp/B09W26RM6G/ref=sr_1_33?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-33</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_35</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/81UlQg9u4IL._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>Legendary Whitetails</t>
-  </si>
-  <si>
-    <t>Mens Buck Camp Flannel Shirt</t>
-  </si>
-  <si>
-    <t>$48.81</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Legendary-Whitetails-Flannels-Cobalt-X-Large/dp/B012XWYCRY/ref=sr_1_33?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-33</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_35</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81yrGRzMdeL._AC_UL320_.jpg</t>
-  </si>
-  <si>
     <t>Hanes</t>
   </si>
   <si>
     <t>Men's Tall Short-Sleeve Beefy T-Shirt (Pack of Two)</t>
   </si>
   <si>
-    <t>$34.07</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Hanes-Short-Sleeve-Beefy-T-X-Large/dp/B00JUM8W7C/ref=sr_1_34?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-34</t>
+    <t>$60.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Hanes-Short-Sleeve-Beefy-T-X-Large/dp/B00JUM8W7C/ref=sr_1_34?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-34</t>
   </si>
   <si>
     <t>men_amazon_shirt_36</t>
@@ -584,64 +593,64 @@
     <t>https://m.media-amazon.com/images/I/61r8tjbG74L._AC_UL320_.jpg</t>
   </si>
   <si>
+    <t>CE' CERDR</t>
+  </si>
+  <si>
+    <t>Men's Long Sleeve Tee Shirt Quick Dry Tshirt - Moisture Wicking Shirt Sun Protection T-Shirt for Fishing Hiking</t>
+  </si>
+  <si>
+    <t>$19.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/CE-CERDR-Moisture-Protection-T-Shirts/dp/B0B6P3ZC8D/ref=sr_1_35?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-35</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_37</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81Z0Hz7Q5FL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Men's Hawaiian Aloha Shirt Short Sleeve Casual Button Down Floral Printed Beach Shirts with Pocket</t>
+  </si>
+  <si>
+    <t>$16.65</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/COOFANDY-Hawaiian-Sleeve-Casual-Printed/dp/B08Q81K49Z/ref=sr_1_36?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-36</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_38</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/810RgYjpWrL._AC_UL320_.jpg</t>
+  </si>
+  <si>
     <t>Mens Short Sleeve Beefy-t</t>
   </si>
   <si>
-    <t>$16.65</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Hanes-Short-Sleeve-Beefy-T-X-Large/dp/B00NOY3JKW/ref=sr_1_35?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-35</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_37</t>
+    <t>$45.23</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Hanes-Short-Sleeve-Beefy-T-X-Large/dp/B00NOY3JKW/ref=sr_1_37?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-37</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_39</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/71zRMNf2uvL._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>Men's Hawaiian Aloha Shirt Short Sleeve Casual Button Down Floral Printed Beach Shirts with Pocket</t>
-  </si>
-  <si>
-    <t>$19.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/COOFANDY-Hawaiian-Sleeve-Casual-Printed/dp/B08Q81K49Z/ref=sr_1_36?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-36</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_38</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/810RgYjpWrL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>CE' CERDR</t>
-  </si>
-  <si>
-    <t>Men's Long Sleeve Tee Shirt Quick Dry Tshirt - Moisture Wicking Shirt Sun Protection T-Shirt for Fishing Hiking</t>
-  </si>
-  <si>
-    <t>$60.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/CE-CERDR-Moisture-Protection-T-Shirts/dp/B0B6P3ZC8D/ref=sr_1_37?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-37</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_39</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81Z0Hz7Q5FL._AC_UL320_.jpg</t>
-  </si>
-  <si>
     <t>Van Heusen</t>
   </si>
   <si>
     <t>Mens Dress Shirt Regular Fit Poplin Solid</t>
   </si>
   <si>
-    <t>$45.23</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Van-Heusen-Poplin-Regular-Collar/dp/B009ESZFMC/ref=sr_1_38?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-38</t>
+    <t>$36.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Van-Heusen-Poplin-Regular-Collar/dp/B009ESZFMC/ref=sr_1_38?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-38</t>
   </si>
   <si>
     <t>men_amazon_shirt_40</t>
@@ -656,10 +665,10 @@
     <t>Mens Short Sleeve Button Up Shirts Hawaiian Casual Linen Shirt Striped Dress Shirt Solid Color Golf Shirts</t>
   </si>
   <si>
-    <t>$36.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/JMIERR-Hawaiian-Business-Aesthetic-Clothing/dp/B09V7MW8MS/ref=sr_1_39?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-39</t>
+    <t>$27.96</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/JMIERR-Hawaiian-Business-Aesthetic-Clothing/dp/B09V7MW8MS/ref=sr_1_39?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-39</t>
   </si>
   <si>
     <t>men_amazon_shirt_41</t>
@@ -674,10 +683,7 @@
     <t>Mens Adidas Clima TECH Training Tee</t>
   </si>
   <si>
-    <t>$27.96</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/adidas-Clima-Petite-Black-White/dp/B07BHM28DB/ref=sr_1_40?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-40</t>
+    <t>https://www.amazon.ca/adidas-Clima-Petite-Black-White/dp/B07BHM28DB/ref=sr_1_40?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-40</t>
   </si>
   <si>
     <t>men_amazon_shirt_42</t>
@@ -686,43 +692,49 @@
     <t>https://m.media-amazon.com/images/I/51cWEqNUZSL._AC_UL320_.jpg</t>
   </si>
   <si>
+    <t>APTRO</t>
+  </si>
+  <si>
+    <t>Men's Hawaiian Shirts Short Sleeve Button Down Casual Beach Tropical Shirts Party Holiday</t>
+  </si>
+  <si>
+    <t>$25.79</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/APTRO-Hawaiian-Shirt-Short-Sleeve/dp/B086JKVM37/ref=sr_1_41?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-41</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_43</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81s+wf9OwAL._AC_UL320_.jpg</t>
+  </si>
+  <si>
     <t>Champion</t>
   </si>
   <si>
     <t>Mens Classic Jersey T-Shirt</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Champion-Classic-Jersey-Graphic-T-Shirt/dp/B078HHDSCS/ref=sr_1_41?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-41</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_43</t>
+    <t>https://www.amazon.ca/Champion-Classic-Jersey-Graphic-T-Shirt/dp/B078HHDSCS/ref=sr_1_42?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-42</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_44</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/71cPMltJecL._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>APTRO</t>
-  </si>
-  <si>
-    <t>Men's Hawaiian Shirts Short Sleeve Button Down Casual Beach Tropical Shirts Party Holiday</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/APTRO-Hawaiian-Shirt-Short-Sleeve/dp/B086JKVM37/ref=sr_1_42?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-42</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_44</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81s+wf9OwAL._AC_UL320_.jpg</t>
-  </si>
-  <si>
     <t>Muscle Cmdr</t>
   </si>
   <si>
     <t>Men's Ribbed Henley Shirt Slim Fit Cotton Short/Long Sleeve Casual T-Shirt</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Muscle-Cmdr-Ribbed-Henley-T-Shirt/dp/B09MJBSYKL/ref=sr_1_43?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-43</t>
+    <t>$46.56</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Muscle-Cmdr-Ribbed-Henley-T-Shirt/dp/B09MJBSYKL/ref=sr_1_43?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-43</t>
   </si>
   <si>
     <t>men_amazon_shirt_45</t>
@@ -731,52 +743,52 @@
     <t>https://m.media-amazon.com/images/I/61r0T-La3GL._AC_UL320_.jpg</t>
   </si>
   <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Mens Extreme Motion All Purpose Long Sleeve Worker Shirt</t>
+  </si>
+  <si>
+    <t>$35.00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Lee-Extreme-Motion-Purpose-Worker/dp/B0C7LMF9GZ/ref=sr_1_44?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-44</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_46</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71NzVEOMJZL._AC_UL320_.jpg</t>
+  </si>
+  <si>
     <t>Dickies</t>
   </si>
   <si>
     <t>Men's Big and Tall Short-Sleeve Work Shirt</t>
   </si>
   <si>
-    <t>$35.00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Dickies-Short-Sleeve-Shirt-Black/dp/B000N8RWPK/ref=sr_1_44?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-44</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_46</t>
+    <t>$35.39</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Dickies-Short-Sleeve-Shirt-Black/dp/B000N8RWPK/ref=sr_1_45?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-45</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_47</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/81VyLAeuWqL._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>Mens Extreme Motion All Purpose Long Sleeve Worker Shirt</t>
-  </si>
-  <si>
-    <t>$46.66</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Lee-Extreme-Motion-Purpose-Worker/dp/B0C7LMF9GZ/ref=sr_1_45?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-45</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_47</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71NzVEOMJZL._AC_UL320_.jpg</t>
-  </si>
-  <si>
     <t>Hawagoos</t>
   </si>
   <si>
     <t>Hawaiian Shirts Men Short Sleeve Button Down Casual Beach Aloha Party Tropical Holiday Shirts</t>
   </si>
   <si>
-    <t>$35.39</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Hawagoos-Hawaiian-Shirts-Tropical-Holiday/dp/B0BR47PF5G/ref=sr_1_46?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-46</t>
+    <t>$61.53</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Hawagoos-Hawaiian-Shirts-Tropical-Holiday/dp/B0BR47PF5G/ref=sr_1_46?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-46</t>
   </si>
   <si>
     <t>men_amazon_shirt_48</t>
@@ -788,10 +800,10 @@
     <t>Mens Heavy Cotton T-Shirt, Style G5000, Multipack</t>
   </si>
   <si>
-    <t>$61.53</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/GILDAN-Mens-Tshirt-Black-2X-Large/dp/B0828NJVN3/ref=sr_1_47?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-47</t>
+    <t>$39.19</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/GILDAN-Mens-Tshirt-Black-2X-Large/dp/B0828NJVN3/ref=sr_1_47?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-47</t>
   </si>
   <si>
     <t>men_amazon_shirt_49</t>
@@ -800,49 +812,46 @@
     <t>https://m.media-amazon.com/images/I/61lDolpjTRL._AC_UL320_.jpg</t>
   </si>
   <si>
+    <t>Boyzn</t>
+  </si>
+  <si>
+    <t>Men's 3 Pack Performance Short/Long Sleeve T-Shirts, UPF 50+ Sun Protection Shirts, Athletic Workout Shirts for Running</t>
+  </si>
+  <si>
+    <t>$33.44</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Boyzn-Performance-T-Shirts-Protection-HGrey-3P03-M/dp/B09NBXKK4H/ref=sr_1_48?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-48</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_50</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81aHtf8zBkL._AC_UL320_.jpg</t>
+  </si>
+  <si>
     <t>Wrangler</t>
   </si>
   <si>
     <t>Mens Denim Shirt</t>
   </si>
   <si>
-    <t>$33.44</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Wrangler-Rugged-Basic-Denim-Medium/dp/B006HYLHRI/ref=sr_1_48?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-48</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_50</t>
+    <t>$15.70</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Wrangler-Rugged-Basic-Denim-Medium/dp/B006HYLHRI/ref=sr_1_49?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-49</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_51</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/A1wEjvjUA-L._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>Boyzn</t>
-  </si>
-  <si>
-    <t>Men's 3 Pack Performance Short/Long Sleeve T-Shirts, UPF 50+ Sun Protection Shirts, Athletic Workout Shirts for Running</t>
-  </si>
-  <si>
-    <t>$39.19</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Boyzn-Performance-T-Shirts-Protection-HGrey-3P03-M/dp/B09NBXKK4H/ref=sr_1_49?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-49</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_51</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81aHtf8zBkL._AC_UL320_.jpg</t>
-  </si>
-  <si>
     <t>Men's Standard Slim-fit Cotton Pique Tipped Polo</t>
   </si>
   <si>
-    <t>$15.70</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Amazon-Essentials-Slim-Fit-Cotton-X-Large/dp/B0775YFJ7C/ref=sr_1_50?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-50</t>
+    <t>https://www.amazon.ca/Amazon-Essentials-Slim-Fit-Cotton-X-Large/dp/B0775YFJ7C/ref=sr_1_50?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-50</t>
   </si>
   <si>
     <t>men_amazon_shirt_52</t>
@@ -851,46 +860,49 @@
     <t>https://m.media-amazon.com/images/I/81zSC96gtML._AC_UL320_.jpg</t>
   </si>
   <si>
+    <t>PASHARTUK</t>
+  </si>
+  <si>
+    <t>Cotton Regular Fit Mens Long Sleeve Shirts Button Down Shirts for Men</t>
+  </si>
+  <si>
+    <t>$33.49</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/PASHARTUK-Cotton-Regular-Sleeve-X-Large/dp/B0C9BZR9HP/ref=sr_1_51?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-51</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_53</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71sC9kTTYAL._AC_UL320_.jpg</t>
+  </si>
+  <si>
     <t>Kenneth Cole REACTION</t>
   </si>
   <si>
     <t>Mens Dress Shirt Regular Fit Solid</t>
   </si>
   <si>
-    <t>$33.49</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Kenneth-Cole-Unlisted-Regular-Sleeve/dp/B07DPF4FDV/ref=sr_1_51?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-51</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_53</t>
+    <t>$55.48</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Kenneth-Cole-Unlisted-Regular-Sleeve/dp/B07DPF4FDV/ref=sr_1_52?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-52</t>
+  </si>
+  <si>
+    <t>men_amazon_shirt_54</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/81H7eM3yy7L._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>PASHARTUK</t>
-  </si>
-  <si>
-    <t>Cotton Regular Fit Mens Long Sleeve Shirts Button Down Shirts for Men</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/PASHARTUK-Cotton-Regular-Sleeve-X-Large/dp/B0C9BZR9HP/ref=sr_1_52?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-52</t>
-  </si>
-  <si>
-    <t>men_amazon_shirt_54</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71sC9kTTYAL._AC_UL320_.jpg</t>
-  </si>
-  <si>
     <t>Mens Iconic Denim Regular Fit Snap Shirt</t>
   </si>
   <si>
-    <t>$55.48</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Wrangler-Iconic-Denim-Regular-Shirt/dp/B0BMQQB4N7/ref=sr_1_53?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-53</t>
+    <t>$25.81</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Wrangler-Iconic-Denim-Regular-Shirt/dp/B0BMQQB4N7/ref=sr_1_53?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-53</t>
   </si>
   <si>
     <t>men_amazon_shirt_55</t>
@@ -902,10 +914,10 @@
     <t>Mens Crew T-Shirt</t>
   </si>
   <si>
-    <t>$25.81</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Gildan-Mens-T-Shirt-White-X-Large/dp/B077ZL5935/ref=sr_1_54?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-54</t>
+    <t>$34.17</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Gildan-Mens-T-Shirt-White-X-Large/dp/B077ZL5935/ref=sr_1_54?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-54</t>
   </si>
   <si>
     <t>men_amazon_shirt_56</t>
@@ -917,10 +929,10 @@
     <t>Men's Dress Shirt Regular Fit Pinpoint Stripe</t>
   </si>
   <si>
-    <t>$34.17</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Van-Heusen-Pinpoint-Regular-Stripe/dp/B00DU6AJG6/ref=sr_1_55?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-55</t>
+    <t>$24.70</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Van-Heusen-Pinpoint-Regular-Stripe/dp/B00DU6AJG6/ref=sr_1_55?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-55</t>
   </si>
   <si>
     <t>men_amazon_shirt_57</t>
@@ -932,10 +944,7 @@
     <t>Mens 2-Pack Performance Pintec T-Shirt</t>
   </si>
   <si>
-    <t>$24.70</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Amazon-Essentials-Standard-Performance-T-Shirt/dp/B07MY3Y8VG/ref=sr_1_56?dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712088198&amp;s=fashion&amp;sr=1-56</t>
+    <t>https://www.amazon.ca/Amazon-Essentials-Standard-Performance-T-Shirt/dp/B07MY3Y8VG/ref=sr_1_56?crid=39CUGV5TXOENK&amp;dib=eyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac&amp;dib_tag=se&amp;keywords=Shirt&amp;qid=1712104190&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C68&amp;sr=1-56</t>
   </si>
   <si>
     <t>men_amazon_shirt_58</t>
@@ -944,67 +953,43 @@
     <t>https://m.media-amazon.com/images/I/81WwEQJAB4L._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>VENZULIA</t>
-  </si>
-  <si>
-    <t>Men's Western Snap Shirt Long Sleeve Regular Fit Plaid Shirts</t>
-  </si>
-  <si>
-    <t>$51.25</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3MzMzODQ2MzE2NjM4MDkyOjE3MTIwODgxOTg6c3BfYnRmOjIwMDEwNDU5NTE0MzA5ODo6MDo6&amp;url=%2FVENZULIA-Western-Sleeve-Regular-Shirts%2Fdp%2FB0B93RNFHH%2Fref%3Dsr_1_57_sspa%3Fdib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712088198%26s%3Dfashion%26sr%3D1-57-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+    <t>Double Pump</t>
+  </si>
+  <si>
+    <t>Big and Tall Shirts for Men Long Sleeve Button Down Shirts from Size XL(T) to 6XL (T) Cotton</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToxMTk5MjgwODU0NzU1MDkzOjE3MTIxMDQxOTA6c3BfYnRmOjMwMDEzMTAyNDMwMTkwMjo6MDo6&amp;url=%2FDouble-Pump-Shirts-Sleeve-3X-Large%2Fdp%2FB09WMX4B3M%2Fref%3Dsr_1_57_sspa%3Fcrid%3D39CUGV5TXOENK%26dib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712104190%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C68%26sr%3D1-57-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
   </si>
   <si>
     <t>men_amazon_shirt_59</t>
   </si>
   <si>
-    <t>https://m.media-amazon.com/images/I/61PTIPA3sUL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Mr.Stream</t>
-  </si>
-  <si>
-    <t>Men's Outdoor Casual Vintage Long Sleeve Plaid Flannel Button Down Shirt Jacket</t>
-  </si>
-  <si>
-    <t>$99.50</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3MzMzODQ2MzE2NjM4MDkyOjE3MTIwODgxOTg6c3BfYnRmOjIwMDA5ODQ1NzQxNzEzMTo6MDo6&amp;url=%2FMr-Stream-Hooded-Casual-Vintage-Flannel%2Fdp%2FB08HKSG5J2%2Fref%3Dsr_1_58_sspa%3Fdib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712088198%26s%3Dfashion%26sr%3D1-58-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+    <t>https://m.media-amazon.com/images/I/91e2D089o6L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToxMTk5MjgwODU0NzU1MDkzOjE3MTIxMDQxOTA6c3BfYnRmOjMwMDEzMDk3MTQ5NzIwMjo6MDo6&amp;url=%2FPASHARTUK-Cotton-Regular-Sleeve-X-Large%2Fdp%2FB0C9BZR9HP%2Fref%3Dsr_1_58_sspa%3Fcrid%3D39CUGV5TXOENK%26dib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712104190%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C68%26sr%3D1-58-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
   </si>
   <si>
     <t>men_amazon_shirt_60</t>
   </si>
   <si>
-    <t>https://m.media-amazon.com/images/I/71pxKfeYHeL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>MCULIVOD</t>
-  </si>
-  <si>
-    <t>Sleeveless Plaid Front Shirt for Men,Cowboy Button Down Shirts</t>
-  </si>
-  <si>
-    <t>$37.18</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3MzMzODQ2MzE2NjM4MDkyOjE3MTIwODgxOTg6c3BfYnRmOjMwMDE1Mjg1NTY1MTgwMjo6MDo6&amp;url=%2FSleeveless-Plaid-Cowboy-Button-Shirts%2Fdp%2FB0C9MFBHMR%2Fref%3Dsr_1_59_sspa%3Fdib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712088198%26s%3Dfashion%26sr%3D1-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+    <t>Oucouvip</t>
+  </si>
+  <si>
+    <t>Men's Cotton T-Shirts Oversized Unisex Short Sleeves Casual Loose Wash Solid Basic Tee Tops</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToxMTk5MjgwODU0NzU1MDkzOjE3MTIxMDQxOTA6c3BfYnRmOjMwMDE1OTE2NjExODkwMjo6MDo6&amp;url=%2FOucouvip-Cotton-T-Shirts-Oversized-Sleeves%2Fdp%2FB0CZ96QFVC%2Fref%3Dsr_1_59_sspa%3Fcrid%3D39CUGV5TXOENK%26dib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712104190%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C68%26sr%3D1-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
   </si>
   <si>
     <t>men_amazon_shirt_61</t>
   </si>
   <si>
-    <t>https://m.media-amazon.com/images/I/81ki7GbJODL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Men's Western Flannel Casual Shirt Two Pocket Long Sleeve Snap Shirt</t>
-  </si>
-  <si>
-    <t>$50.40</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3MzMzODQ2MzE2NjM4MDkyOjE3MTIwODgxOTg6c3BfYnRmOjIwMDEwNDYwOTk1NjA5ODo6MDo6&amp;url=%2FWestern-Flannel-Casual-Pocket-Sleeve%2Fdp%2FB09H5TM5L1%2Fref%3Dsr_1_60_sspa%3Fdib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9t9huAP36vdifCNut-figUUBAdPJPK75WXVWjBEmot8N2PasOi635eSr2rwnQk0CS7elRu-b2id6DhqTYpFuxyjKsIfnCQAgAcu0hSLE8_0W_KCmF-OrPb0LOtsBQCwGBpexNXERwbRqRWi07Q5Do7cCbbBM6D53N0AxGcmDYWxkPa-siVPMKVNN-M0m2Ic7i2WipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.vD1J9IfTUQ7f-lCHetwREGCpjGeI6uyv4uQH-mxZsF4%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712088198%26s%3Dfashion%26sr%3D1-60-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+    <t>https://m.media-amazon.com/images/I/61WkWxkPWpL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToxMTk5MjgwODU0NzU1MDkzOjE3MTIxMDQxOTA6c3BfYnRmOjIwMDEyNzY4NTc5ODU5ODo6MDo6&amp;url=%2FMuscle-Cmdr-Ribbed-Henley-T-Shirt%2Fdp%2FB09MJBSYKL%2Fref%3Dsr_1_60_sspa%3Fcrid%3D39CUGV5TXOENK%26dib%3DeyJ2IjoiMSJ9.raXSi70sbo_I6xfgVx0HcwLa2tiDx3SjjOGaSN4Dj9v9BaVBzhZPqS2tadrU4DciF8Wb8WkDZ3Vrl6bv3Q5Lf9LaS4Lb1310cd1CqkTE-8T1a-fa7SHGgpA6ZA12gpZEEg7MuHhchpay7uSkSP_6GOxrH_QEStj-F8LKzuF219j33sI7-gZNCtgmq2uh5MJPRN6KpDQYRp4FtG15pfDXfUV6eXhWe4J70vhDPxrv4hOWipKUxCoa5nZE6cX7DvoJL8B1kIA3mMMin9mYzN2Ma2Fi9MNWaRF00PlCZQipkpA.nJEhhxaVklzz8TheqgZcuXNCynpsAryB3eF9wONonac%26dib_tag%3Dse%26keywords%3DShirt%26qid%3D1712104190%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C68%26sr%3D1-60-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
   </si>
 </sst>
 </file>
@@ -1143,53 +1128,53 @@
         <v>25</v>
       </c>
       <c r="C5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="E5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="F5" t="s" s="0">
         <v>28</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C6" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="D6" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="E6" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="F6" t="s" s="0">
         <v>34</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="C7" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="D7" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="E7" t="s" s="0">
         <v>39</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>22</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>40</v>
@@ -1203,7 +1188,7 @@
         <v>42</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>43</v>
@@ -1223,167 +1208,167 @@
         <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="F14" t="s" s="0">
         <v>76</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="C15" t="s" s="0">
         <v>79</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>8</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>80</v>
       </c>
       <c r="E15" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>81</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="C16" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="E16" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="F16" t="s" s="0">
         <v>86</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="C17" t="s" s="0">
         <v>89</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>52</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>90</v>
@@ -1403,67 +1388,67 @@
         <v>94</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s" s="0">
         <v>110</v>
@@ -1483,133 +1468,133 @@
         <v>114</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="F25" t="s" s="0">
         <v>133</v>
-      </c>
-      <c r="F25" t="s" s="0">
-        <v>134</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="C26" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="D26" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="D26" t="s" s="0">
+      <c r="E26" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s" s="0">
         <v>138</v>
-      </c>
-      <c r="E26" t="s" s="0">
-        <v>139</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>140</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="E27" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="C27" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="D27" t="s" s="0">
+      <c r="F27" t="s" s="0">
         <v>143</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="F27" t="s" s="0">
-        <v>144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="C28" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="C28" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s" s="0">
-        <v>53</v>
-      </c>
       <c r="E28" t="s" s="0">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s" s="0">
         <v>147</v>
@@ -1620,679 +1605,679 @@
         <v>148</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F42" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F46" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F49" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F50" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F51" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s" s="0">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F53" t="s" s="0">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F55" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F56" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F57" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>306</v>
+        <v>27</v>
       </c>
       <c r="F58" t="s" s="0">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="E60" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s" s="0">
         <v>318</v>
-      </c>
-      <c r="F60" t="s" s="0">
-        <v>319</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="C61" t="s" s="0">
         <v>320</v>
       </c>
-      <c r="B61" t="s" s="0">
+      <c r="D61" t="s" s="0">
         <v>321</v>
       </c>
-      <c r="C61" t="s" s="0">
+      <c r="E61" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="F61" t="s" s="0">
         <v>322</v>
-      </c>
-      <c r="D61" t="s" s="0">
-        <v>323</v>
-      </c>
-      <c r="E61" t="s" s="0">
-        <v>324</v>
-      </c>
-      <c r="F61" t="s" s="0">
-        <v>325</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>310</v>
+        <v>237</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="E62" t="s" s="0">
-        <v>329</v>
+        <v>142</v>
       </c>
       <c r="F62" t="s" s="0">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
